--- a/source/excel/nwsl-2016-sbfc-fckc-061116.xlsx
+++ b/source/excel/nwsl-2016-sbfc-fckc-061116.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Documents/GitHub/wosostats/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C943DC7-CE30-2446-B8EC-00C1DBDA0C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="740" windowWidth="20620" windowHeight="12060" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="540" windowWidth="20620" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match!$A$1:$T$1561</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -749,7 +758,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1050,6 +1059,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1316,11 +1328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1401" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O1408" sqref="O1408"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20044,7 +20056,7 @@
         <v>104</v>
       </c>
       <c r="F311" s="17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H311" s="16" t="s">
         <v>20</v>
@@ -72265,22 +72277,22 @@
       <c r="T1561" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1561"/>
+  <autoFilter ref="A1:T1561" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="I107" r:id="rId1"/>
-    <hyperlink ref="I133" r:id="rId2"/>
-    <hyperlink ref="I179" r:id="rId3"/>
-    <hyperlink ref="I197" r:id="rId4"/>
-    <hyperlink ref="F311" r:id="rId5"/>
-    <hyperlink ref="I324" r:id="rId6"/>
-    <hyperlink ref="I360" r:id="rId7"/>
-    <hyperlink ref="I464" r:id="rId8"/>
-    <hyperlink ref="I494" r:id="rId9"/>
-    <hyperlink ref="I501" r:id="rId10"/>
-    <hyperlink ref="I511" r:id="rId11"/>
-    <hyperlink ref="I543" r:id="rId12"/>
-    <hyperlink ref="I581" r:id="rId13"/>
-    <hyperlink ref="I601" r:id="rId14"/>
+    <hyperlink ref="I107" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I133" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I179" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I197" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F311" r:id="rId5" display="flick.on" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I324" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I360" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I464" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I494" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I501" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I511" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I543" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I581" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I601" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
